--- a/Izlet_Test/bin/testData/BugTracing.xlsx
+++ b/Izlet_Test/bin/testData/BugTracing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
   <si>
     <t>Category</t>
   </si>
@@ -247,6 +247,90 @@
   </si>
   <si>
     <t>medium</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>1. go to localhost/izleti 2.manipulate window size</t>
+  </si>
+  <si>
+    <t>Website will be responsive and adapt content redistribution</t>
+  </si>
+  <si>
+    <t>Website  is not responsive</t>
+  </si>
+  <si>
+    <t>Some of the content is not visible, other is disturbed</t>
+  </si>
+  <si>
+    <t>ResponsiveDesign</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>1. go to localhost/izleti/; 2.login as a registrated user; 3. make a new post; 4. click on edit post icon</t>
+  </si>
+  <si>
+    <t>Edit post window wil pop out</t>
+  </si>
+  <si>
+    <t>There is no action after click on edit icon</t>
+  </si>
+  <si>
+    <t>Edit icon is not working</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>1. go to localhost/izleti/; 2.login as a registrated user; 3. make a new post; 4. click on comment button</t>
+  </si>
+  <si>
+    <t>Comment indow will pop out and after successful input of the comment, user will be able to view comment</t>
+  </si>
+  <si>
+    <t>Comments are not visible anywhere</t>
+  </si>
+  <si>
+    <t>Every new comment is saved in database, but not displayed or reachable on website</t>
+  </si>
+  <si>
+    <t>Value11</t>
+  </si>
+  <si>
+    <t>Edit Posts</t>
+  </si>
+  <si>
+    <t>Comments Section</t>
+  </si>
+  <si>
+    <t>CommentsDatabase</t>
+  </si>
+  <si>
+    <t>1. go to localhost/izleti/; 2.login as a registrated user; 3. make a new post; 4. click on comment button; 5. make a new comment; 6. delete a post</t>
+  </si>
+  <si>
+    <t>After deletion of post all comments related to that post will be deleted from database</t>
+  </si>
+  <si>
+    <t>After deletion of post all comments related to that post are still in the database</t>
+  </si>
+  <si>
+    <t>Comments are not deleted from database as their origina post is deleted</t>
+  </si>
+  <si>
+    <t>PosterIconRedirection</t>
+  </si>
+  <si>
+    <t>1. go to localhost/izleti/; 2.login as a registrated user; 3. click on poster icon on any post</t>
+  </si>
+  <si>
+    <t>poster icon will redirect to a user page</t>
+  </si>
+  <si>
+    <t>poster icon reloads the entire dashboard page</t>
   </si>
 </sst>
 </file>
@@ -357,13 +441,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,23 +731,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -687,12 +771,27 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3">
@@ -716,10 +815,25 @@
       <c r="I2" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="10" t="s">
+      <c r="J2" s="4">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4">
+        <v>10</v>
+      </c>
+      <c r="M2" s="4">
+        <v>11</v>
+      </c>
+      <c r="N2" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -743,10 +857,25 @@
       <c r="I3" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="10" t="s">
+      <c r="J3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -770,39 +899,69 @@
       <c r="I4" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10" t="s">
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>43556</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>43556</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>43556</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>43556</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>43556</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <v>43556</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="5">
         <v>43556</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="J5" s="5">
+        <v>43557</v>
+      </c>
+      <c r="K5" s="5">
+        <v>43557</v>
+      </c>
+      <c r="L5" s="5">
+        <v>43557</v>
+      </c>
+      <c r="M5" s="5">
+        <v>43557</v>
+      </c>
+      <c r="N5" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -826,10 +985,25 @@
       <c r="I6" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10" t="s">
+      <c r="J6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3"/>
@@ -841,12 +1015,17 @@
         <v>70</v>
       </c>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -870,10 +1049,25 @@
       <c r="I8" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10" t="s">
+      <c r="J8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -897,10 +1091,25 @@
       <c r="I9" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10" t="s">
+      <c r="J9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -924,12 +1133,27 @@
       <c r="I10" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="J10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -953,10 +1177,25 @@
       <c r="I11" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="10" t="s">
+      <c r="J11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -980,10 +1219,25 @@
       <c r="I12" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="10" t="s">
+      <c r="J12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1007,10 +1261,25 @@
       <c r="I13" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10" t="s">
+      <c r="J13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1034,12 +1303,25 @@
       <c r="I14" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="J14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1063,10 +1345,25 @@
       <c r="I15" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="10" t="s">
+      <c r="J15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="3"/>
@@ -1076,10 +1373,15 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1103,12 +1405,27 @@
       <c r="I17" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1120,6 +1437,11 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
